--- a/Testdata/TC_Unit Manipulation_03.xlsx
+++ b/Testdata/TC_Unit Manipulation_03.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>djUAAB+LCAAAAAAAAAPtW1tv48YV/iuEnxKg8pCS7LWdWQayZHuF6mJYcnadlwVFjmzWFKnyYltv6UMRIL0ARZMA6RV5KBoEaLoPabHdLdr/Eqy96VP/Qs9cSA4pai1qt2iL2jBgzbnM5cyZc74zGuN3ryaOckH8wPbc+2vaurqmENf0LNs9vb8WheOKtrn2ro73rkziHBq+MSEhCCug5QY7V4F9f+0sDKc7CF1eXq5f1tY9/xRVVVVDj7qdgXlGJkbFdoPQcE2ylmhZt2ut6bhpTbokNCwjNLjm/bX2oL3eJLbZAlrXcI1T4q/vRoHtkiDYc0M7tElANX1ihKTZ6r7HF6ZX1zfXNYzm6KnkbmQ7FpfLSHK6kINhydCeEL2qVtWKVq2otaGm7tTUnXp1Xd1U348VE0HcMYJwQPwL22SEQWhMpkxdq6o1Ta2p9SpGhULQV2oAHfcd64hc2AGxmsRxglIWQWIDG2YIqy5nTBUjSVd0tPoUDnxjeja0Q4eUVd/3fGKCoVYau0cu+76w33DaAe7wzPbDWcuYle7rOCB+f0qtUU5Vxy3PDRsO8cPjKWwqsWDPgaGHfkQwWsBMlVp2YMJn242IpY8NJ5CVMkz80PPPg6lhkh4cWET7uHQdz7DAs0I7CG0zHXSOgQ99bwo9wuC7nmPtQ69CuICR9Nx2wcR02F3PO09nV8TEzAeYN8CeTowwFp+j48GZd9l3ndkgGgWmb4+I1dqNpQt5mJ48od2MgtCbwCxSEuY0iTKDHzhpeTJuEdOeGM6hA0YM9Br0kiHgRhR6Yztsek40cYN4TjkqfggrGpKrZIVJG/dhc11qdM9tu7E8N3MhK6tw5F0mY84zmBEkciMw4+2eZ+SFW0CLt2+ew3aErnLfdiARyHshUbNeMTgjJCx0Cc7BNObt09Si787omBilFAyeCd4NVJ0miAr7HarqDvuFkRM23nMtIaex4FyT5WIm7kWT/ghO8AVbk64BL0fCsApn1zHcc6A+tMOzXiOefQEH8zUvlJ/nYTirU8eYMXJiF5mG267pRBbhIaDtjplT0rnxbVzIxnOkDpxqHRvubDibQsgN7J0QPtxfgyS8E4Q+pPk13fQiN/RnNFZgJERv0wmikcsGMJyldcY++X4E6GK2H7lm07OWH83i1jl27XD5GXqRzwPg8irMejQWRkGL0KjCwvzS+maZNQV+KfGJSyaea5vLWxuMTGdvrbCQID5VS2sQfr6Wlncgk/NER8/60mo+QENIbaWGaQSBZ9rMWcXxsCR9tODItMjYiByAZSEk1dMk2ubJuBGc52VkEj72nTjm6RT0BoB6TWuybgJcoMhu3fQmlIAAbD4cYCTLU8xjkj33tGO4pxGgiiSu5OlJxKUZcegbbkCXk4CIXPAtFsJxnOLgRufBqx8xR+DBywMuRjk5PCSTqecbThcMY+8LtxMICcBH1wjPRAuymUPM2MgoVU20sjOLJ36bGEtLfBn0wIswmSMyIboWjq9TmZSG6Sq7cCydpuHYI59H1Th5F/Fgw1I4GMdfuriS0DDeA6ixIN9+l8wo8E4bgs5cVosZ3IFpINUHR/Wt6oa6sQFYhrYxW/GBdxEqgHoJoEKlogyNK+Udpe1a9oVtRYYDH8H5YGXcPCIFldKUdfB+HN/ZFBowzywlKwDI4tSG9DEvmHBSBf2EGL4zkwT5EjueCXI3H//9+tmvbj7+8/UPf1d5+cVPrz/6/J9//cWLp1++ePaMU/kauTQeGiOHsBkNd7e21FodHCwhYWpVxFCwFZkho52cMPCbtLEo1lijudduHnR2WSBJiLE6zyWI1oEzL0qbA74KNhDbSxS7ABfRh3FgEu0MV8pNOq3LLkhWWuYvUuS2ePn89y+f/2GhtjBYCrK07e0tVvjejsG0ObkEg3UywZ8K1yvqRqValYRzMviIR/7ETm1Lh/p5W9XuqVoSxK3Ei4uE8izR09A4RTk9TmpyXJS4gNyOmczzhyQIEzY/C1JD+OiffvTtHz/JSAnrCkq2F5gcwy90MBQ3WNe9o6Ey6B8fNfeU4d6A+knKk+R4568QFqMnByrjVK4Lp/w7CmR1yGLKGhQ/a4o3VohhnikzOIrSQcw4WxGVD7Ril/lZHvheNOU7Iimk1ALJJJwUahQEG8Zj9pyLOimrQJzP9fovXxcpiIW0UiSrH3V3lYmb+CWj4QyHkyS+OLWf/e3F0w9pcHvys+unP8j0IMZJbgDAz+E0yc3E7SHkiUSTo+CHA2bMc/WxlFgEkVZQh57thoGu1VnxJFoYVDXaG/uL2xPIdaxjZi+g5yj4gRHsXYXiYOs9jLIEmOfUgDTrpWVmQuAxPLXrP379m5tffn3z6ZNvP/zy+qMvrn/86cvnv/32q8/5qbv55MnNT74SUT6fCNhcaPHK0Z/CrkJMhZ5GhSZt5ZsPfq64XqgA1lAiFpG++eAzqTM6UYZK0p4ByyUTyU5hTlRWpnqKNJVkDhm9RIVn/iZNYbVEQiQxb2qb6SDvV2hX9NwxxlvtYSUKiOIBjHobVpIVTpWX1RMqPKUe3lOrWlVw+WzoEkZGIJn+wPFGACNiBrtryIlktF6tkMqy8Q46/d1GJxXhk+j7FvGpG/IPuB3EaDJ2L4kCXEB5ZuTQK6E5sXkWjj9JoQuJu5Vxw6IhT1eL7i8yErgZ+T5HQa64kx9EU0C+8Q3cYj67lZTAbo8DUxn+pu12K8uHtsSF5JdlUwLjs3AkWDw0tQN6jcOxa4+aJm0CL3OTCeYQ1+4cXQGSJD6isWbP9z2/MOCknFisC7AZoghKLZ7IIDokh9hWulcxIQ5yd1D7DmrfQe07qH0Htf/foPaZtQhqU84CqF2gWB5ha4sRtva4bhKN1MfblRHZvlepawQ+WZZRGW+Yta0Nc3tb3Rz/B8B3vFkFXzIsnMPyWWmVfX+VKxZUTW86kr52zn51ML0lyN1es6FX7NhdJXVXSb3pSkpLKqkYiQf8rj/3DQAEI0s/7rWHj7uNXvvwuNMYtvu0VqAIQkpoXOS4M2wfdtp7R289iFzLJ9Y7Ci92QsVwHGVCv2KYOjYUEm/TL2OkfJi+TuLTSNoCt8N5PyVhN+kghu/vGU5E9ActjPgnhkr1Zr83GDZ6kMbF10S5LotGMKZTh2WIRYMMj473yg2D5FVx+JovQiRqshNpZGz4dngGHdhmf0r4dxYBhNA5uUSVFnupklKkxerBfDktwpHHFciq5RXixQbKxFuUSy35dhz5ZDqSqhYkFSKoqOxAmToDvXZNgRbWAos58UzTxFR4YVCQtwrlFlUAhcK3VwB52M4oy4N6lElwaB60pyS0EI+jOdCNimHwAvKcSuL+hcQir0rASSExHkACi4hjEzQPLdGbuaRFMh5TXwsSLo8SkERA81k7S0KZNIvyKVUmICn/oYJsl6OhbLpCIiqh/7XLPTH2f/PtHlrlPg+9uWs7KbG07PH4BCDko/TtVEzgM057oQ2eU+dACZJQi+Qb4oHVm3WWVbBNUTd398ll75OXL6//LVfNKH0PkiKkFnEA0JV9dRxrd72LlXXBLcqqtoO+Ywk7l3vSkpgl7UB+A059qOxkGr4PCIM+Gi39aLtju+ftcqvX1Zplkc2t8ba5qW2MydZYg5+6Zt5TrZqq1gE2sU5pMUC7mAAOpO+Dyg2i0fgkq6dvuY4M97Rkb9zATJG+dwJLsbMqKt+kjfdtPwgfURAgPnHKSUI54cDxkS7+PeERb5/otQ1OAAEkD4Yys45DT8j/XcBzOvbELvkmSo3jU7YTcIPplOPAshvabHV75CrESOoBMMPoewBP+CPCMr3xUwUFUKIf9zWIRqW7Q7HyIfCpY62mvWcBvFxdmz2+t53XmAADlat20XYD+/QsLLuvxng0HpGRWtmyNjcqdZWYle0trV4h482RRe5VSW17i76aFp1D4rDJZclBaLqxg8hwyuuh3H9P6f8CngDK/HY1AAA=</t>
+          <t>ADYAAB+LCAAAAAAAAAPtW1lz2zgS/issP2UeZJCSLMtehFO6nHBWh8uSJ8m+pCASkrCmSA0P2/r32wB4gBSViIpn92GdclWEvgA0Gt1fUxT+/XXras80CJnvfbwwLvULjXq27zBv/fEijlYNo3Pxu4lHrzZ170lAtjQCYQ20vPD2NWQfLzZRtLtF6OXl5fKldekHa9TUdQN9nYzn9oZuSYN5YUQ8m15kWs7PtS5MPHC2ExoRh0REan68sObW5YAyewi0CfHImgaX/ThkHg3DkRexiNGQawaURHQwnPwpN2Y2LzuXBkYH9FyyHzPXkXIFSUlP5GBaumBbajb1pt7QrxuGvjBat7p+2zQuO1f6v1LFTBCPSRjNafDMbEGYR2S7E+r6taEbLV1vwmyVQmArd4CJZ67zQJ9ZSJ0Bdd2wlkdQcoA9O4Jd13OmjpGimxg6fwmfArLbLFjk0rrqd35AbXDUWXNP6cssSPy32I2Bu9iwINoPyb62rceQBrMd90Y9VRMPfS/quTSIHndwqNSBMweGGQUxxegIM1castCGz8yLqWOuiBuqSgUm/uIHT+GO2HQKFxZxGy+e6xMHIitiYcTsfNIDBr4P/B1YhMn7vuvcgdVEuIKRWbY8cDGftu/7T/nqqphYxICIBjjTLYlS8QM6nm/8l5nn7ufxMrQDtqTOsJ9KV/Iwv3mJ9iAOI38Lq8hJWNIUymSC9vAPLluZg4fUZlvi3rvgx9BsgaECAffiyF+xaOC78dYL02WVqPgLbGpBX7NNZmM8g/P1uN99z/JSeenpSlZR4cF/yeY8ZAg/KOReaKcnfsgoCw+Blp7gIUccCt/lHXOhFqjHoVCLgTHfUBpVRoXkYJ727nh1Mft7PidGOQVDcEKAA9XkNaIh/haQdMUfzJyx8chzEjlDbxjNRkuVS5l4Gm9nS7jEz2JPpgG8EgnDLty+S7wnoH5h0WbaS1dfwcFyz0flD3kYruvOJXtBzvyi0rDl2W7sUJkFLG8lgpKvTR7jUTY+II3hYpuYePvFfgdZN2S3EXz4eAF1+DaMAqj0F6btx14U7Hm6wCgR/ZlOGC89MQFxT9ZZBfSvGADG/i727IHvnD6bI73z6LHo9BX6cSBz4Okqwns8HcbhkPLEIjL9yfp2nT2FQS3xrUe3vsfs070NTuard87YSJjeqpM1qLxfJ8u7UMxlreN3/WS1ANAhVLda0/TC0LeZCNbkejiKPjpyZYZ0RWIXkFkEdXWdZdsyGffCp7KMSsKPgZvmPJPj3hCAr+1sL21ADBzcXdr+lhMQ4M0vc4xUeQ57bDry1mPirWMAFlleKdOzjMuL4iIgXsi3k+GIUvKtFsJpnpL4xpTJaxaLQJDJywcuRiU5vKDbnR8QdwKOYXdJ2CUgCfDHhESbZATVzKV26mSUq2ZaxZWlC/+ZmChLchv8widpskQUQnwvEmLnMjkN811O4Fq6A+KyZSCzalq8q3hwYDkiTPMv31xNdJieAbRZUG//Sfcce+eDhC5C1kgZMoB5IjXnD+3udbfdagKW4WMsdvxhOPgNcJsTC6fdamMG+XfFqKNNIcWBP7VPJLzVJpP+4hHKoHBSUojO0Fc18V2a68VyJhCyBUKRDyBjzaCSHMhljFzenAD03Lh7RVLuduzbIPgBbp6/0x6Yy0K59idIDHydWs8lW21AWFDYsVTDC7J0qVjaot/tdm+uIegyEuaeRgIcc18ImjWcClCcEXDSxInBYGQN7h8mIrtkxFRfFhjE+8O9H+fDudyPmEkcMErjQoqYgzRbJeMCVylYptoQFHVUqWPq0iWKI4+aSJxXwGidEzFak2M0vRKjjQvFIWm4weiNIlySwQ+yMmQus6Chv2obTd5lZ0neyeK7SqjMSiwtyBqV9CRpIHFTEg785uXjlClug+U5Ptx3RjIZeUmUgfRktWDi5YRSIQQrFWCHz4zSgZhiyKBvjiB1RlT7RD3K76y/0mbM1Yjn8GsBvsnFFVU5Kdd/EvraH1Dihf6EeXvypDnEE9eqH2+ZaiRZbXY71Yg7vLuFeKyiSnM/VCzP+Cnw491B3smpFZKVGeiQW9IUPjtcWs6rkJeL7cdQQ4lXpZTsZphDXnMy1SBfadEmi1FBxmWmpCoi0tYfcUSEzANbxgUTyVzZEwMIerha6jC7A5ALk6pUouAvc+HVJ/27UoUSIm+37n3mRaHZbYtOKxlhUDW4NfE/trZQGIVh4Teglyj4MwlHr1Fyy03IvUUCrHNHIEz9vCfNCDK5576FIXU1a3j50O/rRvtWO1IntEIxSQpCuWaI1YlPBxZ/VDW1D2qOVo3zrQjNfKZ0fdoIbvCa37ayhKpjCqm9soaCQiYrgcMAql33OpNI6p2/Y3ZufS5yQDZ7iZtLpzPPRc5RBBMZWV/vu52blpFw5XwcHC1JSCsyIWyDblm81VIZ8VyiJF0wcLJuriZT+HQ4m47mVi+XkqubBZD4eEzKD9gKUxyaxppCAS7gQxvud0QPxQ5ZOP2kJDSUPJVZ9Rz+LN7Uq558FCTwIA4CiZq85IH+PN4BZs4evBwXEM80FZw8lZhWRc752BoW+TBWuFAXi2xOEHyRmhKWTFNWyJ8ASdg75b7Jh8ArPAcFfyQP7SUIe2ZwDohnnlEQ+EFl+sk5qdgEEDfkFJS7PJNBfEqJzp38sFJCmvLeUfo7Sn9H6e8o/R2lv6P0CpTOEfbGqYLoKee/gM+N4/jc+O60dOPauFo2dNJpNtqrq+vGjd69apDrTqtzpXeX7e7qfwDd04Or+D7j6BpOrlxnhcCPwrK66Xrr5PpGBf7HWfaU7Pfz/g/94Pzeu7L3ruxv7cqMrCtLQX0ov3EofQ8BecoxH6fW4vukN7XuH8e9hTXjbQcHG0p1kyKP44V1P7ZGDx8+x54TUOcfmuybIo24rrblX3TsXAY9yW/8KyGlOOavScllZOOkBYA8sKbRJDOQdgJ/Ejem5mfAJ/KTALPmYDadL3rTBRyL/LKqZLJqBrLbuaJ4HJtk8fA4qjcNUnclQW+5n1Go2UnkSbMXsGgDBpg921H5zQlAmkO5TJX3jbmSVqUlWstya57kJl8q0HM7NSSbFVTIw6hUdcrjNA2qdKR0PUjpX1BVt4IK3Qn65U4EHe0djnPSleYFq/LhQ0U9q5Q71ixUCv+8WSgjfEE5Hf+jQslDh9A+J6GjaB0d4G9UjYmPkA9UsvCvJFZFVYZbKonpBAqORBK2oEPwid7m6S9SoZr+S2jxdMiAFAI6LNBFEipUWFSupioBKYURVZTBEg0VKxZKshJ6f1D45g8K0TmPBtHbPQFUCsuQrVbfAOl+zd/gSglyxbkVPpA19QCUIAW1KLGRvOb1tsFyDrapMvP/FXJv8mz69Nb7b3lsjfLXUnKINKQuILq67z+n2hP/+WxdiIu6qlY4c53Ez/XerMnckhtQ30bnMVR3Mb0gAIjB312t/fr4mHlPVr3dm6uOY3SW0Lo7Tou29Bu909adTnPpLG17eQNRI43yboCb2AIQ5K8p1ZvE4AlKVc9fKXsg3rqmNelgochfuwJPyeecoMRfuUrH+I4FYfSVo4Dkk6R8yyjfJHL8ajYlPPwqx9/M7pUkgABSJ0OFVae5J5I/XPDdMduymq9m6Wl+KhqBMNjtJBCse6CD4WRKXyOMFAsAGpb/Bnwi32WsY03eKuiAMv3U1jxe1jaHUuV74PPAOk975AC+PF9b/AyAub+wAIEqzzVheSFbb6K656pfG+1Oe9luXNlXdqN97dw0bjrtZqOlE3Ld7LRso83xbmocCgejLzUn4eWGhTFx6+uh0u+4zP8AmFtx7QA2AAA=</t>
         </r>
       </text>
     </comment>
@@ -39,12 +39,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,23 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,20 +113,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,34 +442,34 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Subnational</t>
         </is>
@@ -454,105 +478,105 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>RMB mn</t>
+          <t>MN BTU th</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>RMB hd</t>
+          <t>BTU hd</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Series ID</t>
         </is>
       </c>
-      <c r="B8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="C8" s="3">
-        <v>310901701</v>
+      <c r="B8" s="5">
+        <v>254123002</v>
+      </c>
+      <c r="C8" s="5">
+        <v>254123002</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>SR Code</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Mnemonic</t>
         </is>
@@ -561,7 +585,7 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Function Description</t>
         </is>
@@ -574,300 +598,850 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>First Obs. Date</t>
         </is>
       </c>
-      <c r="B12" s="4">
-        <v>36130</v>
-      </c>
-      <c r="C12" s="4">
-        <v>36130</v>
+      <c r="B12" s="6">
+        <v>38718</v>
+      </c>
+      <c r="C12" s="6">
+        <v>38718</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Last Obs. Date</t>
         </is>
       </c>
-      <c r="B13" s="4">
-        <v>40878</v>
-      </c>
-      <c r="C13" s="4">
-        <v>40878</v>
+      <c r="B13" s="6">
+        <v>41244</v>
+      </c>
+      <c r="C13" s="6">
+        <v>41244</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Last Update Time</t>
         </is>
       </c>
-      <c r="B14" s="5">
-        <v>41781</v>
-      </c>
-      <c r="C14" s="5">
-        <v>41781</v>
+      <c r="B14" s="7">
+        <v>43839</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43839</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Series remarks</t>
         </is>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>Suggestions</t>
         </is>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
       <c r="B17" s="2">
-        <v>1231.927</v>
+        <v>93374.63980350002</v>
       </c>
       <c r="C17" s="2">
-        <v>12319270</v>
+        <v>933746398035</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
       <c r="B18" s="2">
-        <v>196242.7157566667</v>
+        <v>67588679.72409233</v>
       </c>
       <c r="C18" s="2">
-        <v>19624271575666.67</v>
+        <v>6.758867972409233e+21</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Standard Deviation</t>
         </is>
       </c>
       <c r="B19" s="2">
-        <v>442.9929071177852</v>
+        <v>8221.233467314521</v>
       </c>
       <c r="C19" s="2">
-        <v>4429929.071177852</v>
+        <v>82212334673.1452</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Skewness</t>
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.4639651794892382</v>
+        <v>0.5786993566761636</v>
       </c>
       <c r="C20" s="2">
-        <v>0.4639651794892376</v>
+        <v>0.5786993566761698</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Kurtosis</t>
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-0.8990137168045287</v>
+        <v>-0.2909755924600841</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.8990137168045296</v>
+        <v>-0.290975592460077</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Coefficient Variation</t>
         </is>
       </c>
       <c r="B22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654154</v>
       </c>
       <c r="C22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654156</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
       <c r="B23" s="2">
-        <v>727.63</v>
+        <v>80465.44901</v>
       </c>
       <c r="C23" s="2">
-        <v>7276300</v>
+        <v>804654490100</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
       <c r="B24" s="2">
-        <v>2026.83</v>
+        <v>112482.41951</v>
       </c>
       <c r="C24" s="2">
-        <v>20268300</v>
+        <v>1124824195100</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Median</t>
         </is>
       </c>
       <c r="B25" s="2">
-        <v>1181.145</v>
+        <v>92555.497445</v>
       </c>
       <c r="C25" s="2">
-        <v>11811450</v>
+        <v>925554974450</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>No. of Obs</t>
         </is>
       </c>
       <c r="B26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
-        <v>37226</v>
-      </c>
-      <c r="B27" s="8">
-        <v>791.02</v>
-      </c>
-      <c r="C27" s="8">
-        <v>7910200</v>
+      <c r="A27" s="10">
+        <v>38718</v>
+      </c>
+      <c r="B27" s="11">
+        <v>102584.6417</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1025846417000</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7">
-        <v>37591</v>
-      </c>
-      <c r="B28" s="8">
-        <v>767.73</v>
-      </c>
-      <c r="C28" s="8">
-        <v>7677300</v>
+      <c r="A28" s="10">
+        <v>38749</v>
+      </c>
+      <c r="B28" s="11">
+        <v>93467.54944</v>
+      </c>
+      <c r="C28" s="11">
+        <v>934675494400</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7">
-        <v>37956</v>
-      </c>
-      <c r="B29" s="8">
-        <v>727.63</v>
-      </c>
-      <c r="C29" s="8">
-        <v>7276300</v>
+      <c r="A29" s="10">
+        <v>38777</v>
+      </c>
+      <c r="B29" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C29" s="11">
+        <v>986070121200</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7">
-        <v>38322</v>
-      </c>
-      <c r="B30" s="8">
-        <v>922.91</v>
-      </c>
-      <c r="C30" s="8">
-        <v>9229100</v>
+      <c r="A30" s="10">
+        <v>38808</v>
+      </c>
+      <c r="B30" s="11">
+        <v>97395.64367</v>
+      </c>
+      <c r="C30" s="11">
+        <v>973956436700</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7">
-        <v>38687</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1126.49</v>
-      </c>
-      <c r="C31" s="8">
-        <v>11264900</v>
+      <c r="A31" s="10">
+        <v>38838</v>
+      </c>
+      <c r="B31" s="11">
+        <v>92075.12437000001</v>
+      </c>
+      <c r="C31" s="11">
+        <v>920751243700</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="10">
+        <v>38869</v>
+      </c>
+      <c r="B32" s="11">
+        <v>95232.23819</v>
+      </c>
+      <c r="C32" s="11">
+        <v>952322381900</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="10">
+        <v>38899</v>
+      </c>
+      <c r="B33" s="11">
+        <v>100047.7073</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1000477073000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="10">
+        <v>38930</v>
+      </c>
+      <c r="B34" s="11">
+        <v>95307.24011</v>
+      </c>
+      <c r="C34" s="11">
+        <v>953072401100</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10">
+        <v>38961</v>
+      </c>
+      <c r="B35" s="11">
+        <v>89917.83798</v>
+      </c>
+      <c r="C35" s="11">
+        <v>899178379800</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="10">
+        <v>38991</v>
+      </c>
+      <c r="B36" s="11">
+        <v>98395.83232</v>
+      </c>
+      <c r="C36" s="11">
+        <v>983958323200</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10">
+        <v>39022</v>
+      </c>
+      <c r="B37" s="11">
+        <v>98170.13428</v>
+      </c>
+      <c r="C37" s="11">
+        <v>981701342800</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="10">
         <v>39052</v>
       </c>
-      <c r="B32" s="8">
-        <v>1235.8</v>
-      </c>
-      <c r="C32" s="8">
-        <v>12358000</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7">
+      <c r="B38" s="11">
+        <v>98568.94826</v>
+      </c>
+      <c r="C38" s="11">
+        <v>985689482600</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="10">
+        <v>39083</v>
+      </c>
+      <c r="B39" s="11">
+        <v>95524.24980000001</v>
+      </c>
+      <c r="C39" s="11">
+        <v>955242498000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="10">
+        <v>39114</v>
+      </c>
+      <c r="B40" s="11">
+        <v>83617.02267999999</v>
+      </c>
+      <c r="C40" s="11">
+        <v>836170226800</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="10">
+        <v>39142</v>
+      </c>
+      <c r="B41" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C41" s="11">
+        <v>986070121200</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="10">
+        <v>39173</v>
+      </c>
+      <c r="B42" s="11">
+        <v>87313.59292</v>
+      </c>
+      <c r="C42" s="11">
+        <v>873135929200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10">
+        <v>39203</v>
+      </c>
+      <c r="B43" s="11">
+        <v>89092.12278000001</v>
+      </c>
+      <c r="C43" s="11">
+        <v>890921227800</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10">
+        <v>39234</v>
+      </c>
+      <c r="B44" s="11">
+        <v>83580.49619999999</v>
+      </c>
+      <c r="C44" s="11">
+        <v>835804962000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10">
+        <v>39264</v>
+      </c>
+      <c r="B45" s="11">
+        <v>89062.82719</v>
+      </c>
+      <c r="C45" s="11">
+        <v>890628271900</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10">
+        <v>39295</v>
+      </c>
+      <c r="B46" s="11">
+        <v>93159.99709999999</v>
+      </c>
+      <c r="C46" s="11">
+        <v>931599971000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="10">
+        <v>39326</v>
+      </c>
+      <c r="B47" s="11">
+        <v>86589.08224</v>
+      </c>
+      <c r="C47" s="11">
+        <v>865890822400</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="10">
+        <v>39356</v>
+      </c>
+      <c r="B48" s="11">
+        <v>93035.87052</v>
+      </c>
+      <c r="C48" s="11">
+        <v>930358705200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10">
+        <v>39387</v>
+      </c>
+      <c r="B49" s="11">
+        <v>91356.15084</v>
+      </c>
+      <c r="C49" s="11">
+        <v>913561508400</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10">
         <v>39417</v>
       </c>
-      <c r="B33" s="8">
-        <v>1482.71</v>
-      </c>
-      <c r="C33" s="8">
-        <v>14827100</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7">
+      <c r="B50" s="11">
+        <v>95688.73797</v>
+      </c>
+      <c r="C50" s="11">
+        <v>956887379700</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="10">
+        <v>39448</v>
+      </c>
+      <c r="B51" s="11">
+        <v>96328.9469</v>
+      </c>
+      <c r="C51" s="11">
+        <v>963289469000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10">
+        <v>39479</v>
+      </c>
+      <c r="B52" s="11">
+        <v>98953.75303000001</v>
+      </c>
+      <c r="C52" s="11">
+        <v>989537530300</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="10">
+        <v>39508</v>
+      </c>
+      <c r="B53" s="11">
+        <v>90097.77222</v>
+      </c>
+      <c r="C53" s="11">
+        <v>900977722200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10">
+        <v>39539</v>
+      </c>
+      <c r="B54" s="11">
+        <v>82155.80794</v>
+      </c>
+      <c r="C54" s="11">
+        <v>821558079400</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="10">
+        <v>39569</v>
+      </c>
+      <c r="B55" s="11">
+        <v>90612.21428</v>
+      </c>
+      <c r="C55" s="11">
+        <v>906122142800</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="10">
+        <v>39600</v>
+      </c>
+      <c r="B56" s="11">
+        <v>83468.69955999999</v>
+      </c>
+      <c r="C56" s="11">
+        <v>834686995600</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="10">
+        <v>39630</v>
+      </c>
+      <c r="B57" s="11">
+        <v>85880.46527</v>
+      </c>
+      <c r="C57" s="11">
+        <v>858804652700</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10">
+        <v>39661</v>
+      </c>
+      <c r="B58" s="11">
+        <v>88071.95206</v>
+      </c>
+      <c r="C58" s="11">
+        <v>880719520600</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="10">
+        <v>39692</v>
+      </c>
+      <c r="B59" s="11">
+        <v>86411.6581</v>
+      </c>
+      <c r="C59" s="11">
+        <v>864116581000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="10">
+        <v>39722</v>
+      </c>
+      <c r="B60" s="11">
+        <v>85863.46357000001</v>
+      </c>
+      <c r="C60" s="11">
+        <v>858634635700</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="10">
+        <v>39753</v>
+      </c>
+      <c r="B61" s="11">
+        <v>87911.15601999999</v>
+      </c>
+      <c r="C61" s="11">
+        <v>879111560200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10">
         <v>39783</v>
       </c>
-      <c r="B34" s="8">
-        <v>1598.61</v>
-      </c>
-      <c r="C34" s="8">
-        <v>15986100</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7">
+      <c r="B62" s="11">
+        <v>91789.90822</v>
+      </c>
+      <c r="C62" s="11">
+        <v>917899082200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="10">
+        <v>39814</v>
+      </c>
+      <c r="B63" s="11">
+        <v>92030.37178</v>
+      </c>
+      <c r="C63" s="11">
+        <v>920303717800</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="10">
+        <v>39845</v>
+      </c>
+      <c r="B64" s="11">
+        <v>80465.44901</v>
+      </c>
+      <c r="C64" s="11">
+        <v>804654490100</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="10">
+        <v>39873</v>
+      </c>
+      <c r="B65" s="11">
+        <v>81558.51788</v>
+      </c>
+      <c r="C65" s="11">
+        <v>815585178800</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="10">
+        <v>39904</v>
+      </c>
+      <c r="B66" s="11">
+        <v>81657.46119</v>
+      </c>
+      <c r="C66" s="11">
+        <v>816574611900</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="10">
+        <v>39934</v>
+      </c>
+      <c r="B67" s="11">
+        <v>83308.78529</v>
+      </c>
+      <c r="C67" s="11">
+        <v>833087852900</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10">
+        <v>39965</v>
+      </c>
+      <c r="B68" s="11">
+        <v>84839.49019</v>
+      </c>
+      <c r="C68" s="11">
+        <v>848394901900</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="10">
+        <v>39995</v>
+      </c>
+      <c r="B69" s="11">
+        <v>90413.66712</v>
+      </c>
+      <c r="C69" s="11">
+        <v>904136671200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="10">
+        <v>40026</v>
+      </c>
+      <c r="B70" s="11">
+        <v>85945.56743</v>
+      </c>
+      <c r="C70" s="11">
+        <v>859455674300</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="10">
+        <v>40057</v>
+      </c>
+      <c r="B71" s="11">
+        <v>84672.43913</v>
+      </c>
+      <c r="C71" s="11">
+        <v>846724391300</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="10">
+        <v>40087</v>
+      </c>
+      <c r="B72" s="11">
+        <v>85370.54401</v>
+      </c>
+      <c r="C72" s="11">
+        <v>853705440100</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="10">
+        <v>40118</v>
+      </c>
+      <c r="B73" s="11">
+        <v>86578.4388</v>
+      </c>
+      <c r="C73" s="11">
+        <v>865784388000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="10">
         <v>40148</v>
       </c>
-      <c r="B35" s="8">
-        <v>1639.54</v>
-      </c>
-      <c r="C35" s="8">
-        <v>16395400</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7">
+      <c r="B74" s="11">
+        <v>97156.65667</v>
+      </c>
+      <c r="C74" s="11">
+        <v>971566566700</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="10">
+        <v>40179</v>
+      </c>
+      <c r="B75" s="11">
+        <v>97289.10838000001</v>
+      </c>
+      <c r="C75" s="11">
+        <v>972891083800</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="10">
+        <v>40210</v>
+      </c>
+      <c r="B76" s="11">
+        <v>94671.4368</v>
+      </c>
+      <c r="C76" s="11">
+        <v>946714368000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="10">
+        <v>40238</v>
+      </c>
+      <c r="B77" s="11">
+        <v>110403.24314</v>
+      </c>
+      <c r="C77" s="11">
+        <v>1104032431400</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="10">
+        <v>40269</v>
+      </c>
+      <c r="B78" s="11">
+        <v>99640.66865000001</v>
+      </c>
+      <c r="C78" s="11">
+        <v>996406686500</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="10">
+        <v>40299</v>
+      </c>
+      <c r="B79" s="11">
+        <v>110055.8161</v>
+      </c>
+      <c r="C79" s="11">
+        <v>1100558161000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="10">
+        <v>40330</v>
+      </c>
+      <c r="B80" s="11">
+        <v>94930.02968000001</v>
+      </c>
+      <c r="C80" s="11">
+        <v>949300296800</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="10">
+        <v>40360</v>
+      </c>
+      <c r="B81" s="11">
+        <v>111079.15933</v>
+      </c>
+      <c r="C81" s="11">
+        <v>1110791593300</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="10">
+        <v>40391</v>
+      </c>
+      <c r="B82" s="11">
+        <v>112482.41951</v>
+      </c>
+      <c r="C82" s="11">
+        <v>1124824195100</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="10">
+        <v>40422</v>
+      </c>
+      <c r="B83" s="11">
+        <v>105503.17811</v>
+      </c>
+      <c r="C83" s="11">
+        <v>1055031781100</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="10">
+        <v>40452</v>
+      </c>
+      <c r="B84" s="11">
+        <v>107765.02529</v>
+      </c>
+      <c r="C84" s="11">
+        <v>1077650252900</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="10">
+        <v>40483</v>
+      </c>
+      <c r="B85" s="11">
+        <v>101364.03607</v>
+      </c>
+      <c r="C85" s="11">
+        <v>1013640360700</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="10">
         <v>40513</v>
       </c>
-      <c r="B36" s="8">
-        <v>2026.83</v>
-      </c>
-      <c r="C36" s="8">
-        <v>20268300</v>
+      <c r="B86" s="11">
+        <v>109354.00938</v>
+      </c>
+      <c r="C86" s="11">
+        <v>1093540093800</v>
       </c>
     </row>
   </sheetData>
@@ -887,23 +1461,23 @@
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>0</Order>
         </MetadataSeries>
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>3</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>3</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>1</Order>
         </MetadataSeries>
       </MetaDataSeries>
@@ -913,7 +1487,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{033AB69E-24EA-4FA8-9FF2-1E1381C75A9B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{106FF582-D544-409B-BE5F-41970DE5C59A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>
